--- a/doc/dev/tickets.xlsx
+++ b/doc/dev/tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antiv\source\repos\bvec\doc\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5E034-FB4D-4BAF-8CC8-EBA0AD096FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F26BF6-512B-4E51-BC8D-E63397FC8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>TICKET ID</t>
   </si>
   <si>
-    <t>TITLE</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -121,6 +118,30 @@
   </si>
   <si>
     <t>Ticket has been canceled, work has ceased on it</t>
+  </si>
+  <si>
+    <t>BVEC-4</t>
+  </si>
+  <si>
+    <t>Create BVEC and BVEC_BUFFER structs</t>
+  </si>
+  <si>
+    <t>BVEC-5</t>
+  </si>
+  <si>
+    <t>Frame out API</t>
+  </si>
+  <si>
+    <t>BVEC-6</t>
+  </si>
+  <si>
+    <t>Create empty window on BVEC::init()</t>
+  </si>
+  <si>
+    <t>BVEC-7</t>
+  </si>
+  <si>
+    <t>Destroy window on BVEC::end()</t>
   </si>
 </sst>
 </file>
@@ -475,76 +496,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="106.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="117.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -568,66 +629,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/doc/dev/tickets.xlsx
+++ b/doc/dev/tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antiv\source\repos\bvec\doc\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F26BF6-512B-4E51-BC8D-E63397FC8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D31B537-25F1-4C92-A1D0-678E8D3E370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>BVEC-4</t>
   </si>
   <si>
-    <t>Create BVEC and BVEC_BUFFER structs</t>
-  </si>
-  <si>
     <t>BVEC-5</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Destroy window on BVEC::end()</t>
+  </si>
+  <si>
+    <t>Create BVEC and BVEC_BUFFER struct defs</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,29 +569,29 @@
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>12</v>

--- a/doc/dev/tickets.xlsx
+++ b/doc/dev/tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antiv\source\repos\bvec\doc\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D31B537-25F1-4C92-A1D0-678E8D3E370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F60BE7C-AEC1-4ED0-B270-93C34E03890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -605,7 +605,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
